--- a/MyProcessedData.xlsx
+++ b/MyProcessedData.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Return - Assets" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics - Assets" sheetId="2" r:id="rId2"/>
-    <sheet name="Cov Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Cov Matrix - MSR" sheetId="3" r:id="rId3"/>
+    <sheet name="Cov Matrix - GMV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>Stocks</t>
   </si>
@@ -11948,4 +11949,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5362770683221475</v>
+      </c>
+      <c r="C2">
+        <v>0.04063261415214349</v>
+      </c>
+      <c r="D2">
+        <v>0.004263827564603929</v>
+      </c>
+      <c r="E2">
+        <v>0.07351413982142964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04063261415214349</v>
+      </c>
+      <c r="C3">
+        <v>0.2496120565456261</v>
+      </c>
+      <c r="D3">
+        <v>0.007764856102087415</v>
+      </c>
+      <c r="E3">
+        <v>-0.04821359618541207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.004263827564603929</v>
+      </c>
+      <c r="C4">
+        <v>0.007764856102087415</v>
+      </c>
+      <c r="D4">
+        <v>0.9208144172546407</v>
+      </c>
+      <c r="E4">
+        <v>0.2315509111785782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.07351413982142964</v>
+      </c>
+      <c r="C5">
+        <v>-0.04821359618541207</v>
+      </c>
+      <c r="D5">
+        <v>0.2315509111785782</v>
+      </c>
+      <c r="E5">
+        <v>0.871265670730896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>